--- a/data-raw/data3Lsim-eb.xlsx
+++ b/data-raw/data3Lsim-eb.xlsx
@@ -152,28 +152,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.10317784350164388</v>
+        <v>0.075329297715421351</v>
       </c>
       <c r="C3">
-        <v>0.18264998782728489</v>
+        <v>0.22227759321107007</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.45442139165781098</v>
+        <v>-0.50418389714568768</v>
       </c>
       <c r="F3">
-        <v>-2.17786306430739</v>
+        <v>-2.0288014246788442</v>
       </c>
       <c r="G3">
-        <v>0.69257451425874528</v>
+        <v>0.69175158407937309</v>
       </c>
       <c r="H3">
-        <v>0.46416012567903198</v>
+        <v>5.3834324018293049</v>
       </c>
       <c r="I3">
-        <v>0.080848177623217596</v>
+        <v>0.40877212955007952</v>
       </c>
     </row>
   </sheetData>
